--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3836336666666667</v>
+        <v>0.834641</v>
       </c>
       <c r="H2">
-        <v>1.150901</v>
+        <v>2.503923</v>
       </c>
       <c r="I2">
-        <v>0.2699520776252869</v>
+        <v>0.4389248184909427</v>
       </c>
       <c r="J2">
-        <v>0.2699520776252869</v>
+        <v>0.4389248184909426</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>161.9042856666667</v>
+        <v>30.52246933333333</v>
       </c>
       <c r="N2">
-        <v>485.712857</v>
+        <v>91.567408</v>
       </c>
       <c r="O2">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547768</v>
       </c>
       <c r="P2">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547769</v>
       </c>
       <c r="Q2">
-        <v>62.11193475935078</v>
+        <v>25.47530432684266</v>
       </c>
       <c r="R2">
-        <v>559.007412834157</v>
+        <v>229.277738941584</v>
       </c>
       <c r="S2">
-        <v>0.1033747534697354</v>
+        <v>0.04647180214946808</v>
       </c>
       <c r="T2">
-        <v>0.1033747534697355</v>
+        <v>0.04647180214946807</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3836336666666667</v>
+        <v>0.834641</v>
       </c>
       <c r="H3">
-        <v>1.150901</v>
+        <v>2.503923</v>
       </c>
       <c r="I3">
-        <v>0.2699520776252869</v>
+        <v>0.4389248184909427</v>
       </c>
       <c r="J3">
-        <v>0.2699520776252869</v>
+        <v>0.4389248184909426</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.9232319999999999</v>
       </c>
       <c r="O3">
-        <v>0.0007278787860563825</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="P3">
-        <v>0.0007278787860563827</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="Q3">
-        <v>0.1180609591146666</v>
+        <v>0.2568557599039999</v>
       </c>
       <c r="R3">
-        <v>1.062548632032</v>
+        <v>2.311701839136</v>
       </c>
       <c r="S3">
-        <v>0.0001964923905552921</v>
+        <v>0.0004685537767112257</v>
       </c>
       <c r="T3">
-        <v>0.0001964923905552922</v>
+        <v>0.0004685537767112257</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3836336666666667</v>
+        <v>0.834641</v>
       </c>
       <c r="H4">
-        <v>1.150901</v>
+        <v>2.503923</v>
       </c>
       <c r="I4">
-        <v>0.2699520776252869</v>
+        <v>0.4389248184909427</v>
       </c>
       <c r="J4">
-        <v>0.2699520776252869</v>
+        <v>0.4389248184909426</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.56644499999999</v>
+        <v>47.57542166666667</v>
       </c>
       <c r="N4">
-        <v>106.699335</v>
+        <v>142.726265</v>
       </c>
       <c r="O4">
-        <v>0.08412206512861695</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="P4">
-        <v>0.08412206512861696</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="Q4">
-        <v>13.64448570564833</v>
+        <v>39.70839751528833</v>
       </c>
       <c r="R4">
-        <v>122.800371350835</v>
+        <v>357.375577637595</v>
       </c>
       <c r="S4">
-        <v>0.02270892625559984</v>
+        <v>0.07243567218384681</v>
       </c>
       <c r="T4">
-        <v>0.02270892625559984</v>
+        <v>0.07243567218384678</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3836336666666667</v>
+        <v>0.834641</v>
       </c>
       <c r="H5">
-        <v>1.150901</v>
+        <v>2.503923</v>
       </c>
       <c r="I5">
-        <v>0.2699520776252869</v>
+        <v>0.4389248184909427</v>
       </c>
       <c r="J5">
-        <v>0.2699520776252869</v>
+        <v>0.4389248184909426</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>225.0171966666667</v>
+        <v>209.8781993333333</v>
       </c>
       <c r="N5">
-        <v>675.05159</v>
+        <v>629.634598</v>
       </c>
       <c r="O5">
-        <v>0.5322126311204886</v>
+        <v>0.7280262516928295</v>
       </c>
       <c r="P5">
-        <v>0.5322126311204887</v>
+        <v>0.7280262516928296</v>
       </c>
       <c r="Q5">
-        <v>86.32417222028778</v>
+        <v>175.1729501697727</v>
       </c>
       <c r="R5">
-        <v>776.91754998259</v>
+        <v>1576.556551527954</v>
       </c>
       <c r="S5">
-        <v>0.1436719055093963</v>
+        <v>0.3195487903809166</v>
       </c>
       <c r="T5">
-        <v>0.1436719055093963</v>
+        <v>0.3195487903809165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3724893333333334</v>
+        <v>0.3724893333333333</v>
       </c>
       <c r="H6">
         <v>1.117468</v>
       </c>
       <c r="I6">
-        <v>0.2621101278735305</v>
+        <v>0.1958863907034828</v>
       </c>
       <c r="J6">
-        <v>0.2621101278735306</v>
+        <v>0.1958863907034828</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>161.9042856666667</v>
+        <v>30.52246933333333</v>
       </c>
       <c r="N6">
-        <v>485.712857</v>
+        <v>91.567408</v>
       </c>
       <c r="O6">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547768</v>
       </c>
       <c r="P6">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547769</v>
       </c>
       <c r="Q6">
-        <v>60.30761943178624</v>
+        <v>11.36929425366044</v>
       </c>
       <c r="R6">
-        <v>542.7685748860761</v>
+        <v>102.323648282944</v>
       </c>
       <c r="S6">
-        <v>0.1003717774250942</v>
+        <v>0.02073975589679147</v>
       </c>
       <c r="T6">
-        <v>0.1003717774250942</v>
+        <v>0.02073975589679147</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3724893333333334</v>
+        <v>0.3724893333333333</v>
       </c>
       <c r="H7">
         <v>1.117468</v>
       </c>
       <c r="I7">
-        <v>0.2621101278735305</v>
+        <v>0.1958863907034828</v>
       </c>
       <c r="J7">
-        <v>0.2621101278735306</v>
+        <v>0.1958863907034828</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>0.9232319999999999</v>
       </c>
       <c r="O7">
-        <v>0.0007278787860563825</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="P7">
-        <v>0.0007278787860563827</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="Q7">
         <v>0.1146313573973333</v>
@@ -883,10 +883,10 @@
         <v>1.031682216576</v>
       </c>
       <c r="S7">
-        <v>0.0001907844016896686</v>
+        <v>0.0002091094062213334</v>
       </c>
       <c r="T7">
-        <v>0.0001907844016896687</v>
+        <v>0.0002091094062213335</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3724893333333334</v>
+        <v>0.3724893333333333</v>
       </c>
       <c r="H8">
         <v>1.117468</v>
       </c>
       <c r="I8">
-        <v>0.2621101278735305</v>
+        <v>0.1958863907034828</v>
       </c>
       <c r="J8">
-        <v>0.2621101278735306</v>
+        <v>0.1958863907034828</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.56644499999999</v>
+        <v>47.57542166666667</v>
       </c>
       <c r="N8">
-        <v>106.699335</v>
+        <v>142.726265</v>
       </c>
       <c r="O8">
-        <v>0.08412206512861695</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="P8">
-        <v>0.08412206512861696</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="Q8">
-        <v>13.24812138708667</v>
+        <v>17.72133709966889</v>
       </c>
       <c r="R8">
-        <v>119.23309248378</v>
+        <v>159.49203389702</v>
       </c>
       <c r="S8">
-        <v>0.02204924524784725</v>
+        <v>0.03232709061897627</v>
       </c>
       <c r="T8">
-        <v>0.02204924524784726</v>
+        <v>0.03232709061897626</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3724893333333334</v>
+        <v>0.3724893333333333</v>
       </c>
       <c r="H9">
         <v>1.117468</v>
       </c>
       <c r="I9">
-        <v>0.2621101278735305</v>
+        <v>0.1958863907034828</v>
       </c>
       <c r="J9">
-        <v>0.2621101278735306</v>
+        <v>0.1958863907034828</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>225.0171966666667</v>
+        <v>209.8781993333333</v>
       </c>
       <c r="N9">
-        <v>675.05159</v>
+        <v>629.634598</v>
       </c>
       <c r="O9">
-        <v>0.5322126311204886</v>
+        <v>0.7280262516928295</v>
       </c>
       <c r="P9">
-        <v>0.5322126311204887</v>
+        <v>0.7280262516928296</v>
       </c>
       <c r="Q9">
-        <v>83.81650557490224</v>
+        <v>78.17739055087377</v>
       </c>
       <c r="R9">
-        <v>754.3485501741201</v>
+        <v>703.596514957864</v>
       </c>
       <c r="S9">
-        <v>0.1394983207988994</v>
+        <v>0.1426104347814937</v>
       </c>
       <c r="T9">
-        <v>0.1394983207988994</v>
+        <v>0.1426104347814937</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4024573333333334</v>
+        <v>0.4120993333333334</v>
       </c>
       <c r="H10">
-        <v>1.207372</v>
+        <v>1.236298</v>
       </c>
       <c r="I10">
-        <v>0.2831977553817382</v>
+        <v>0.2167166782887156</v>
       </c>
       <c r="J10">
-        <v>0.2831977553817382</v>
+        <v>0.2167166782887155</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>161.9042856666667</v>
+        <v>30.52246933333333</v>
       </c>
       <c r="N10">
-        <v>485.712857</v>
+        <v>91.567408</v>
       </c>
       <c r="O10">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547768</v>
       </c>
       <c r="P10">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547769</v>
       </c>
       <c r="Q10">
-        <v>65.1595670646449</v>
+        <v>12.57828926395378</v>
       </c>
       <c r="R10">
-        <v>586.4361035818041</v>
+        <v>113.204603375584</v>
       </c>
       <c r="S10">
-        <v>0.108447019201705</v>
+        <v>0.02294519282493235</v>
       </c>
       <c r="T10">
-        <v>0.108447019201705</v>
+        <v>0.02294519282493235</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4024573333333334</v>
+        <v>0.4120993333333334</v>
       </c>
       <c r="H11">
-        <v>1.207372</v>
+        <v>1.236298</v>
       </c>
       <c r="I11">
-        <v>0.2831977553817382</v>
+        <v>0.2167166782887156</v>
       </c>
       <c r="J11">
-        <v>0.2831977553817382</v>
+        <v>0.2167166782887155</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>0.9232319999999999</v>
       </c>
       <c r="O11">
-        <v>0.0007278787860563825</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="P11">
-        <v>0.0007278787860563827</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="Q11">
-        <v>0.1238538295893333</v>
+        <v>0.1268210972373333</v>
       </c>
       <c r="R11">
-        <v>1.114684466304</v>
+        <v>1.141389875136</v>
       </c>
       <c r="S11">
-        <v>0.000206133638401152</v>
+        <v>0.0002313458109696404</v>
       </c>
       <c r="T11">
-        <v>0.0002061336384011521</v>
+        <v>0.0002313458109696404</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4024573333333334</v>
+        <v>0.4120993333333334</v>
       </c>
       <c r="H12">
-        <v>1.207372</v>
+        <v>1.236298</v>
       </c>
       <c r="I12">
-        <v>0.2831977553817382</v>
+        <v>0.2167166782887156</v>
       </c>
       <c r="J12">
-        <v>0.2831977553817382</v>
+        <v>0.2167166782887155</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>35.56644499999999</v>
+        <v>47.57542166666667</v>
       </c>
       <c r="N12">
-        <v>106.699335</v>
+        <v>142.726265</v>
       </c>
       <c r="O12">
-        <v>0.08412206512861695</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="P12">
-        <v>0.08412206512861696</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="Q12">
-        <v>14.31397661084667</v>
+        <v>19.60579955188556</v>
       </c>
       <c r="R12">
-        <v>128.82578949762</v>
+        <v>176.45219596697</v>
       </c>
       <c r="S12">
-        <v>0.02382318002250072</v>
+        <v>0.03576470867895915</v>
       </c>
       <c r="T12">
-        <v>0.02382318002250072</v>
+        <v>0.03576470867895915</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4024573333333334</v>
+        <v>0.4120993333333334</v>
       </c>
       <c r="H13">
-        <v>1.207372</v>
+        <v>1.236298</v>
       </c>
       <c r="I13">
-        <v>0.2831977553817382</v>
+        <v>0.2167166782887156</v>
       </c>
       <c r="J13">
-        <v>0.2831977553817382</v>
+        <v>0.2167166782887155</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>225.0171966666667</v>
+        <v>209.8781993333333</v>
       </c>
       <c r="N13">
-        <v>675.05159</v>
+        <v>629.634598</v>
       </c>
       <c r="O13">
-        <v>0.5322126311204886</v>
+        <v>0.7280262516928295</v>
       </c>
       <c r="P13">
-        <v>0.5322126311204887</v>
+        <v>0.7280262516928296</v>
       </c>
       <c r="Q13">
-        <v>90.5598209246089</v>
+        <v>86.49066602646711</v>
       </c>
       <c r="R13">
-        <v>815.0383883214802</v>
+        <v>778.415994238204</v>
       </c>
       <c r="S13">
-        <v>0.1507214225191314</v>
+        <v>0.1577754309738544</v>
       </c>
       <c r="T13">
-        <v>0.1507214225191315</v>
+        <v>0.1577754309738544</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2625373333333333</v>
+        <v>0.2823283333333333</v>
       </c>
       <c r="H14">
-        <v>0.787612</v>
+        <v>0.8469849999999999</v>
       </c>
       <c r="I14">
-        <v>0.1847400391194442</v>
+        <v>0.148472112516859</v>
       </c>
       <c r="J14">
-        <v>0.1847400391194442</v>
+        <v>0.1484721125168589</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>161.9042856666667</v>
+        <v>30.52246933333333</v>
       </c>
       <c r="N14">
-        <v>485.712857</v>
+        <v>91.567408</v>
       </c>
       <c r="O14">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547768</v>
       </c>
       <c r="P14">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547769</v>
       </c>
       <c r="Q14">
-        <v>42.50591941416489</v>
+        <v>8.617357896097776</v>
       </c>
       <c r="R14">
-        <v>382.553274727484</v>
+        <v>77.55622106487999</v>
       </c>
       <c r="S14">
-        <v>0.07074387486830343</v>
+        <v>0.01571970038358496</v>
       </c>
       <c r="T14">
-        <v>0.07074387486830343</v>
+        <v>0.01571970038358496</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2625373333333333</v>
+        <v>0.2823283333333333</v>
       </c>
       <c r="H15">
-        <v>0.787612</v>
+        <v>0.8469849999999999</v>
       </c>
       <c r="I15">
-        <v>0.1847400391194442</v>
+        <v>0.148472112516859</v>
       </c>
       <c r="J15">
-        <v>0.1847400391194442</v>
+        <v>0.1484721125168589</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>0.9232319999999999</v>
       </c>
       <c r="O15">
-        <v>0.0007278787860563825</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="P15">
-        <v>0.0007278787860563827</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="Q15">
-        <v>0.08079428910933333</v>
+        <v>0.08688485061333331</v>
       </c>
       <c r="R15">
-        <v>0.7271486019839999</v>
+        <v>0.7819636555199998</v>
       </c>
       <c r="S15">
-        <v>0.0001344683554102697</v>
+        <v>0.000158494498659806</v>
       </c>
       <c r="T15">
-        <v>0.0001344683554102697</v>
+        <v>0.000158494498659806</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2625373333333333</v>
+        <v>0.2823283333333333</v>
       </c>
       <c r="H16">
-        <v>0.787612</v>
+        <v>0.8469849999999999</v>
       </c>
       <c r="I16">
-        <v>0.1847400391194442</v>
+        <v>0.148472112516859</v>
       </c>
       <c r="J16">
-        <v>0.1847400391194442</v>
+        <v>0.1484721125168589</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>35.56644499999999</v>
+        <v>47.57542166666667</v>
       </c>
       <c r="N16">
-        <v>106.699335</v>
+        <v>142.726265</v>
       </c>
       <c r="O16">
-        <v>0.08412206512861695</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="P16">
-        <v>0.08412206512861696</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="Q16">
-        <v>9.337519626446666</v>
+        <v>13.43188950678056</v>
       </c>
       <c r="R16">
-        <v>84.03767663801999</v>
+        <v>120.887005561025</v>
       </c>
       <c r="S16">
-        <v>0.01554071360266913</v>
+        <v>0.02450232207804931</v>
       </c>
       <c r="T16">
-        <v>0.01554071360266913</v>
+        <v>0.02450232207804931</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2625373333333333</v>
+        <v>0.2823283333333333</v>
       </c>
       <c r="H17">
-        <v>0.787612</v>
+        <v>0.8469849999999999</v>
       </c>
       <c r="I17">
-        <v>0.1847400391194442</v>
+        <v>0.148472112516859</v>
       </c>
       <c r="J17">
-        <v>0.1847400391194442</v>
+        <v>0.1484721125168589</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>225.0171966666667</v>
+        <v>209.8781993333333</v>
       </c>
       <c r="N17">
-        <v>675.05159</v>
+        <v>629.634598</v>
       </c>
       <c r="O17">
-        <v>0.5322126311204886</v>
+        <v>0.7280262516928295</v>
       </c>
       <c r="P17">
-        <v>0.5322126311204887</v>
+        <v>0.7280262516928296</v>
       </c>
       <c r="Q17">
-        <v>59.07541476700889</v>
+        <v>59.2545622207811</v>
       </c>
       <c r="R17">
-        <v>531.67873290308</v>
+        <v>533.2910599870299</v>
       </c>
       <c r="S17">
-        <v>0.0983209822930614</v>
+        <v>0.1080915955565649</v>
       </c>
       <c r="T17">
-        <v>0.09832098229306141</v>
+        <v>0.1080915955565649</v>
       </c>
     </row>
   </sheetData>
